--- a/datos/PEARSON_INDICADORES_2022.xlsx
+++ b/datos/PEARSON_INDICADORES_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://moiguer-my.sharepoint.com/personal/mmiller_moiguer_com/Documents/MIOS_PERSONAL/Maestria/Indicadores Socioeconomicos/tp/datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09fdd58c4f295884/Escritorio/Augusto/Maestria/Indicadores/Socio/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_486DD6AF8F00458134812C5B6ACC032971BBEB02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C13AC067-E238-4F40-94E0-EDDD4CE0F724}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_486DD6AF8F00458134812C5B6ACC032971BBEB02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448FC640-7DF9-4CDA-ADBC-8A032479D637}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table008 (Page 9)" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="439">
   <si>
     <t>Codigo</t>
   </si>
@@ -1382,7 +1382,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -2306,27 +2306,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="70" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="70" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="14" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="13" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="71" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="71" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="71" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="71" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2336,14 +2335,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="71" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="71" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="71" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="71" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="71" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="71" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2407,7 +2409,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2811,7 +2813,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -3215,7 +3217,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -3619,7 +3621,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -3750,76 +3752,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.89</c:v>
+                  <c:v>32.79219787415181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.43</c:v>
+                  <c:v>39.641772500122983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.48</c:v>
+                  <c:v>44.243040784241188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.38</c:v>
+                  <c:v>43.268055320021098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.63</c:v>
+                  <c:v>49.785891290147553</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.68</c:v>
+                  <c:v>56.742256151830823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.41</c:v>
+                  <c:v>37.656392296361503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.49</c:v>
+                  <c:v>42.99187232492487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7</c:v>
+                  <c:v>54.803369334918088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.61</c:v>
+                  <c:v>37.994858861660617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.43</c:v>
+                  <c:v>39.419577977310368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.46</c:v>
+                  <c:v>40.682268793892561</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.52</c:v>
+                  <c:v>42.355493198801952</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.75</c:v>
+                  <c:v>59.010967146793362</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.37</c:v>
+                  <c:v>43.477505745862111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.43</c:v>
+                  <c:v>41.770886738028281</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.69</c:v>
+                  <c:v>49.644092249591587</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.64</c:v>
+                  <c:v>52.058147667099611</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.47</c:v>
+                  <c:v>41.931202967833393</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.53</c:v>
+                  <c:v>36.302584268549978</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4</c:v>
+                  <c:v>46.115686477427893</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7</c:v>
+                  <c:v>44.770683005007328</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.59</c:v>
+                  <c:v>46.065362047468597</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.37</c:v>
+                  <c:v>31.514188514738539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4023,7 +4025,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -4826,15 +4828,15 @@
       <selection activeCell="A5" sqref="A5:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4871,884 +4873,877 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="103" t="s">
+      <c r="A2" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103" t="s">
+      <c r="E2" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103" t="s">
+      <c r="H2" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="103" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" t="s">
         <v>199</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="103" t="s">
+      <c r="J4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="103" t="s">
+      <c r="A5" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="103" t="s">
+      <c r="A6" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" t="s">
         <v>219</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" t="s">
         <v>220</v>
       </c>
-      <c r="J6" s="103" t="s">
+      <c r="J6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="103" t="s">
+      <c r="A7" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="103" t="s">
+      <c r="F7" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="103" t="s">
+      <c r="G7" t="s">
         <v>228</v>
       </c>
-      <c r="H7" s="103" t="s">
+      <c r="H7" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="103" t="s">
+      <c r="I7" t="s">
         <v>230</v>
       </c>
-      <c r="J7" s="103" t="s">
+      <c r="J7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="103" t="s">
+      <c r="A8" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="103" t="s">
+      <c r="H8" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="103" t="s">
+      <c r="I8" t="s">
         <v>240</v>
       </c>
-      <c r="J8" s="103" t="s">
+      <c r="J8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="103" t="s">
+      <c r="A9" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" t="s">
         <v>246</v>
       </c>
-      <c r="F9" s="103" t="s">
+      <c r="F9" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" t="s">
         <v>248</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" t="s">
         <v>249</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" t="s">
         <v>250</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="103" t="s">
+      <c r="A10" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" t="s">
         <v>258</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" t="s">
         <v>259</v>
       </c>
-      <c r="J10" s="103" t="s">
+      <c r="J10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="103" t="s">
+      <c r="A11" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" t="s">
         <v>264</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" t="s">
         <v>265</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="103" t="s">
+      <c r="G11" t="s">
         <v>267</v>
       </c>
-      <c r="H11" s="103" t="s">
+      <c r="H11" t="s">
         <v>268</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" t="s">
         <v>269</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="103" t="s">
+      <c r="A12" t="s">
         <v>271</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" t="s">
         <v>273</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" t="s">
         <v>274</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" t="s">
         <v>275</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" t="s">
         <v>276</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" t="s">
         <v>277</v>
       </c>
-      <c r="H12" s="103" t="s">
+      <c r="H12" t="s">
         <v>225</v>
       </c>
-      <c r="I12" s="103" t="s">
+      <c r="I12" t="s">
         <v>278</v>
       </c>
-      <c r="J12" s="103" t="s">
+      <c r="J12" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="103" t="s">
+      <c r="A13" t="s">
         <v>280</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" t="s">
         <v>284</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" t="s">
         <v>285</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" t="s">
         <v>286</v>
       </c>
-      <c r="H13" s="103" t="s">
+      <c r="H13" t="s">
         <v>287</v>
       </c>
-      <c r="I13" s="103" t="s">
+      <c r="I13" t="s">
         <v>288</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="103" t="s">
+      <c r="A14" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" t="s">
         <v>296</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" t="s">
         <v>297</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" t="s">
         <v>298</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J14" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="103" t="s">
+      <c r="A15" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" t="s">
         <v>301</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" t="s">
         <v>302</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F15" t="s">
         <v>305</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" t="s">
         <v>307</v>
       </c>
-      <c r="I15" s="103" t="s">
+      <c r="I15" t="s">
         <v>308</v>
       </c>
-      <c r="J15" s="103" t="s">
+      <c r="J15" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="103" t="s">
+      <c r="A16" t="s">
         <v>310</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" t="s">
         <v>311</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" t="s">
         <v>312</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" t="s">
         <v>313</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" t="s">
         <v>314</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" t="s">
         <v>315</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" t="s">
         <v>316</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" t="s">
         <v>317</v>
       </c>
-      <c r="I16" s="103" t="s">
+      <c r="I16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" s="103" t="s">
+      <c r="J16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="103" t="s">
+      <c r="A17" t="s">
         <v>320</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="D17" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" t="s">
         <v>324</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" t="s">
         <v>326</v>
       </c>
-      <c r="H17" s="103" t="s">
+      <c r="H17" t="s">
         <v>327</v>
       </c>
-      <c r="I17" s="103" t="s">
+      <c r="I17" t="s">
         <v>328</v>
       </c>
-      <c r="J17" s="103" t="s">
+      <c r="J17" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="103" t="s">
+      <c r="A18" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" t="s">
         <v>331</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" t="s">
         <v>332</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" t="s">
         <v>333</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" t="s">
         <v>334</v>
       </c>
-      <c r="F18" s="103" t="s">
+      <c r="F18" t="s">
         <v>335</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" t="s">
         <v>336</v>
       </c>
-      <c r="H18" s="103" t="s">
+      <c r="H18" t="s">
         <v>337</v>
       </c>
-      <c r="I18" s="103" t="s">
+      <c r="I18" t="s">
         <v>338</v>
       </c>
-      <c r="J18" s="103" t="s">
+      <c r="J18" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="103" t="s">
+      <c r="A19" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" t="s">
         <v>341</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" t="s">
         <v>342</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" t="s">
         <v>296</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" t="s">
         <v>343</v>
       </c>
-      <c r="F19" s="103" t="s">
+      <c r="F19" t="s">
         <v>344</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" t="s">
         <v>345</v>
       </c>
-      <c r="H19" s="103" t="s">
+      <c r="H19" t="s">
         <v>346</v>
       </c>
-      <c r="I19" s="103" t="s">
+      <c r="I19" t="s">
         <v>347</v>
       </c>
-      <c r="J19" s="103" t="s">
+      <c r="J19" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="103" t="s">
+      <c r="A20" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="103" t="s">
+      <c r="B20" t="s">
         <v>349</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" t="s">
         <v>351</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" t="s">
         <v>352</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" t="s">
         <v>353</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" t="s">
         <v>354</v>
       </c>
-      <c r="H20" s="103" t="s">
+      <c r="H20" t="s">
         <v>355</v>
       </c>
-      <c r="I20" s="103" t="s">
+      <c r="I20" t="s">
         <v>356</v>
       </c>
-      <c r="J20" s="103" t="s">
+      <c r="J20" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="103" t="s">
+      <c r="A21" t="s">
         <v>358</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="103" t="s">
+      <c r="C21" t="s">
         <v>360</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D21" t="s">
         <v>361</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" t="s">
         <v>362</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" t="s">
         <v>363</v>
       </c>
-      <c r="G21" s="103" t="s">
+      <c r="G21" t="s">
         <v>364</v>
       </c>
-      <c r="H21" s="103" t="s">
+      <c r="H21" t="s">
         <v>365</v>
       </c>
-      <c r="I21" s="103" t="s">
+      <c r="I21" t="s">
         <v>366</v>
       </c>
-      <c r="J21" s="103" t="s">
+      <c r="J21" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="103" t="s">
+      <c r="A22" t="s">
         <v>368</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" t="s">
         <v>369</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" t="s">
         <v>370</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" t="s">
         <v>371</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" t="s">
         <v>372</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" t="s">
         <v>373</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="103" t="s">
+      <c r="H22" t="s">
         <v>375</v>
       </c>
-      <c r="I22" s="103" t="s">
+      <c r="I22" t="s">
         <v>376</v>
       </c>
-      <c r="J22" s="103" t="s">
+      <c r="J22" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="103" t="s">
+      <c r="A23" t="s">
         <v>378</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" t="s">
         <v>379</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" t="s">
         <v>380</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="E23" t="s">
         <v>381</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="F23" t="s">
         <v>382</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" t="s">
         <v>383</v>
       </c>
-      <c r="H23" s="103" t="s">
+      <c r="H23" t="s">
         <v>384</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="I23" t="s">
         <v>385</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="J23" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="103" t="s">
+      <c r="A24" t="s">
         <v>386</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" t="s">
         <v>388</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" t="s">
         <v>389</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" t="s">
         <v>390</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" t="s">
         <v>391</v>
       </c>
-      <c r="G24" s="103" t="s">
+      <c r="G24" t="s">
         <v>392</v>
       </c>
-      <c r="H24" s="103" t="s">
+      <c r="H24" t="s">
         <v>393</v>
       </c>
-      <c r="I24" s="103" t="s">
+      <c r="I24" t="s">
         <v>333</v>
       </c>
-      <c r="J24" s="103" t="s">
+      <c r="J24" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="103" t="s">
+      <c r="A25" t="s">
         <v>395</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" t="s">
         <v>396</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" t="s">
         <v>397</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" t="s">
         <v>398</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" t="s">
         <v>399</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" t="s">
         <v>400</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="103" t="s">
+      <c r="H25" t="s">
         <v>313</v>
       </c>
-      <c r="I25" s="103" t="s">
+      <c r="I25" t="s">
         <v>259</v>
       </c>
-      <c r="J25" s="103" t="s">
+      <c r="J25" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="103" t="s">
+      <c r="A26" t="s">
         <v>402</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" t="s">
         <v>405</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" t="s">
         <v>406</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" t="s">
         <v>407</v>
       </c>
-      <c r="G26" s="103" t="s">
+      <c r="G26" t="s">
         <v>258</v>
       </c>
-      <c r="H26" s="103" t="s">
+      <c r="H26" t="s">
         <v>408</v>
       </c>
-      <c r="I26" s="103" t="s">
+      <c r="I26" t="s">
         <v>409</v>
       </c>
-      <c r="J26" s="103" t="s">
+      <c r="J26" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="103" t="s">
+      <c r="A27" t="s">
         <v>411</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" t="s">
         <v>412</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" t="s">
         <v>413</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" t="s">
         <v>296</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" t="s">
         <v>414</v>
       </c>
-      <c r="F27" s="103" t="s">
+      <c r="F27" t="s">
         <v>415</v>
       </c>
-      <c r="G27" s="103" t="s">
+      <c r="G27" t="s">
         <v>416</v>
       </c>
-      <c r="H27" s="103" t="s">
+      <c r="H27" t="s">
         <v>417</v>
       </c>
-      <c r="I27" s="103" t="s">
+      <c r="I27" t="s">
         <v>337</v>
       </c>
-      <c r="J27" s="103" t="s">
+      <c r="J27" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="103" t="s">
+      <c r="A28" t="s">
         <v>419</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" t="s">
         <v>420</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" t="s">
         <v>421</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" t="s">
         <v>422</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" t="s">
         <v>423</v>
       </c>
-      <c r="F28" s="103" t="s">
+      <c r="F28" t="s">
         <v>424</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" t="s">
         <v>425</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="H28" t="s">
         <v>426</v>
       </c>
-      <c r="I28" s="103" t="s">
+      <c r="I28" t="s">
         <v>210</v>
       </c>
-      <c r="J28" s="103" t="s">
+      <c r="J28" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="103" t="s">
+      <c r="A29" t="s">
         <v>428</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" t="s">
         <v>429</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" t="s">
         <v>430</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" t="s">
         <v>371</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" t="s">
         <v>431</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" t="s">
         <v>432</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="G29" t="s">
         <v>433</v>
       </c>
-      <c r="H29" s="103" t="s">
+      <c r="H29" t="s">
         <v>434</v>
       </c>
-      <c r="I29" s="103" t="s">
+      <c r="I29" t="s">
         <v>435</v>
       </c>
-      <c r="J29" s="103" t="s">
+      <c r="J29" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5769,7 +5764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
   <conditionalFormatting sqref="K24">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -5790,7 +5785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="95">
@@ -6242,7 +6237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="98" t="s">
@@ -6479,811 +6474,811 @@
       <selection activeCell="M3" sqref="M3:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>438</v>
       </c>
-      <c r="I1" s="109">
+      <c r="I1" s="108">
         <v>23.801311758000228</v>
       </c>
-      <c r="J1" s="109">
+      <c r="J1" s="108">
         <v>27.008921833494327</v>
       </c>
-      <c r="K1" s="109">
+      <c r="K1" s="108">
         <v>29.015212444362604</v>
       </c>
-      <c r="L1" s="109">
+      <c r="L1" s="108">
         <v>35.009043497098617</v>
       </c>
-      <c r="M1" s="109">
+      <c r="M1" s="108">
         <v>40.153792921898237</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111">
+      <c r="H2" s="109"/>
+      <c r="I2" s="110">
         <v>1970</v>
       </c>
-      <c r="J2" s="111">
+      <c r="J2" s="110">
         <v>1980</v>
       </c>
-      <c r="K2" s="111">
+      <c r="K2" s="110">
         <v>1991</v>
       </c>
-      <c r="L2" s="111">
+      <c r="L2" s="110">
         <v>2001</v>
       </c>
-      <c r="M2" s="111">
+      <c r="M2" s="110">
         <v>2010</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="H3" s="110" t="s">
+      <c r="H3" s="109" t="s">
         <v>436</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="110">
         <v>64.869482676791648</v>
       </c>
-      <c r="J3" s="111">
+      <c r="J3" s="110">
         <v>78.01473725522672</v>
       </c>
-      <c r="K3" s="111">
+      <c r="K3" s="110">
         <v>85.473254811023295</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="110">
         <v>102.0223430093334</v>
       </c>
-      <c r="M3" s="111">
+      <c r="M3" s="110">
         <v>100.33015104410268</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="110">
         <v>25.718300406862127</v>
       </c>
-      <c r="J4" s="111">
+      <c r="J4" s="110">
         <v>28.323540472759447</v>
       </c>
-      <c r="K4" s="111">
+      <c r="K4" s="110">
         <v>31.583512599307678</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="110">
         <v>39.715808904375258</v>
       </c>
-      <c r="M4" s="111">
+      <c r="M4" s="110">
         <v>43.111908956229925</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="110">
         <v>16.307129798903109</v>
       </c>
-      <c r="J5" s="111">
+      <c r="J5" s="110">
         <v>18.154659751090094</v>
       </c>
-      <c r="K5" s="111">
+      <c r="K5" s="110">
         <v>18.483227001440625</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="110">
         <v>21.27389433589617</v>
       </c>
-      <c r="M5" s="111">
+      <c r="M5" s="110">
         <v>26.962736849942299</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="104" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="110">
         <v>10.627705627705627</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="110">
         <v>11.932226000333506</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="110">
         <v>13.207098471839599</v>
       </c>
-      <c r="L6" s="111">
+      <c r="L6" s="110">
         <v>17.019023017484951</v>
       </c>
-      <c r="M6" s="111">
+      <c r="M6" s="110">
         <v>22.922720165289771</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="105" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="106" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="110">
         <v>10.003598416696653</v>
       </c>
-      <c r="J7" s="111">
+      <c r="J7" s="110">
         <v>11.714467139379829</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="110">
         <v>14.008882987971614</v>
       </c>
-      <c r="L7" s="111">
+      <c r="L7" s="110">
         <v>21.416229461845372</v>
       </c>
-      <c r="M7" s="111">
+      <c r="M7" s="110">
         <v>27.845104185874973</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="110">
         <v>22.515078906056349</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="110">
         <v>28.269215189369657</v>
       </c>
-      <c r="K8" s="111">
+      <c r="K8" s="110">
         <v>31.930938752360127</v>
       </c>
-      <c r="L8" s="111">
+      <c r="L8" s="110">
         <v>39.828973486242909</v>
       </c>
-      <c r="M8" s="111">
+      <c r="M8" s="110">
         <v>45.873680342440586</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="105" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="106" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="106" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="H9" s="110" t="s">
+      <c r="H9" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="110">
         <v>13.773502404897245</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="110">
         <v>17.090492647118332</v>
       </c>
-      <c r="K9" s="111">
+      <c r="K9" s="110">
         <v>17.095267113548648</v>
       </c>
-      <c r="L9" s="111">
+      <c r="L9" s="110">
         <v>19.9021714456299</v>
       </c>
-      <c r="M9" s="111">
+      <c r="M9" s="110">
         <v>26.76082914210826</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="103" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="104" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="110" t="s">
+      <c r="H10" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="110">
         <v>20.287220505362662</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="110">
         <v>25.171798666153126</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="110">
         <v>27.081328163893371</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="110">
         <v>31.911646516432089</v>
       </c>
-      <c r="M10" s="111">
+      <c r="M10" s="110">
         <v>39.146898386982379</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="106" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="106" t="s">
         <v>293</v>
       </c>
-      <c r="H11" s="110" t="s">
+      <c r="H11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="111">
+      <c r="I11" s="110">
         <v>6.2771607918879768</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="110">
         <v>10.093476449379986</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="110">
         <v>11.704962542108703</v>
       </c>
-      <c r="L11" s="111">
+      <c r="L11" s="110">
         <v>14.774771827668554</v>
       </c>
-      <c r="M11" s="111">
+      <c r="M11" s="110">
         <v>22.195472511678048</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="103" t="s">
         <v>300</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="104" t="s">
         <v>303</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I12" s="110">
         <v>8.7175188600167637</v>
       </c>
-      <c r="J12" s="111">
+      <c r="J12" s="110">
         <v>9.5234424567291445</v>
       </c>
-      <c r="K12" s="111">
+      <c r="K12" s="110">
         <v>11.879195967886528</v>
       </c>
-      <c r="L12" s="111">
+      <c r="L12" s="110">
         <v>17.15785395721521</v>
       </c>
-      <c r="M12" s="111">
+      <c r="M12" s="110">
         <v>24.832862115072523</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="106" t="s">
         <v>311</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="H13" s="110" t="s">
+      <c r="H13" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="111">
+      <c r="I13" s="110">
         <v>22.283150548354936</v>
       </c>
-      <c r="J13" s="111">
+      <c r="J13" s="110">
         <v>26.292393546427029</v>
       </c>
-      <c r="K13" s="111">
+      <c r="K13" s="110">
         <v>28.363098903805888</v>
       </c>
-      <c r="L13" s="111">
+      <c r="L13" s="110">
         <v>35.139684007159026</v>
       </c>
-      <c r="M13" s="111">
+      <c r="M13" s="110">
         <v>45.172648796001816</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="110">
         <v>15.854235683861809</v>
       </c>
-      <c r="J14" s="111">
+      <c r="J14" s="110">
         <v>17.350451053000768</v>
       </c>
-      <c r="K14" s="111">
+      <c r="K14" s="110">
         <v>17.457489878542511</v>
       </c>
-      <c r="L14" s="111">
+      <c r="L14" s="110">
         <v>19.530247194733139</v>
       </c>
-      <c r="M14" s="111">
+      <c r="M14" s="110">
         <v>25.679638242338964</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="106" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="106" t="s">
         <v>333</v>
       </c>
-      <c r="H15" s="110" t="s">
+      <c r="H15" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="110">
         <v>15.951612903225806</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="110">
         <v>20.007841497203199</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="110">
         <v>24.031707117033044</v>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="110">
         <v>32.375828735609616</v>
       </c>
-      <c r="M15" s="111">
+      <c r="M15" s="110">
         <v>39.994080863476462</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="111">
+      <c r="I16" s="110">
         <v>8.6878523833931318</v>
       </c>
-      <c r="J16" s="111">
+      <c r="J16" s="110">
         <v>10.13417945715449</v>
       </c>
-      <c r="K16" s="111">
+      <c r="K16" s="110">
         <v>11.161262685758562</v>
       </c>
-      <c r="L16" s="111">
+      <c r="L16" s="110">
         <v>14.332272556581612</v>
       </c>
-      <c r="M16" s="111">
+      <c r="M16" s="110">
         <v>19.354064381431932</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="105" t="s">
         <v>348</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="106" t="s">
         <v>350</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="106" t="s">
         <v>351</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="110">
         <v>8.2478457119409114</v>
       </c>
-      <c r="J17" s="111">
+      <c r="J17" s="110">
         <v>8.4201606829023348</v>
       </c>
-      <c r="K17" s="111">
+      <c r="K17" s="110">
         <v>10.35331134089208</v>
       </c>
-      <c r="L17" s="111">
+      <c r="L17" s="110">
         <v>16.359701629984343</v>
       </c>
-      <c r="M17" s="111">
+      <c r="M17" s="110">
         <v>24.702456058983611</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="104" t="s">
         <v>360</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="104" t="s">
         <v>361</v>
       </c>
-      <c r="H18" s="110" t="s">
+      <c r="H18" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="111">
+      <c r="I18" s="110">
         <v>12.291105121293802</v>
       </c>
-      <c r="J18" s="111">
+      <c r="J18" s="110">
         <v>12.298584814494019</v>
       </c>
-      <c r="K18" s="111">
+      <c r="K18" s="110">
         <v>14.895713856193138</v>
       </c>
-      <c r="L18" s="111">
+      <c r="L18" s="110">
         <v>23.093972923945568</v>
       </c>
-      <c r="M18" s="111">
+      <c r="M18" s="110">
         <v>32.789625499354308</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="105" t="s">
         <v>368</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="106" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>370</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="106" t="s">
         <v>371</v>
       </c>
-      <c r="H19" s="110" t="s">
+      <c r="H19" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="111">
+      <c r="I19" s="110">
         <v>9.3921275535625313</v>
       </c>
-      <c r="J19" s="111">
+      <c r="J19" s="110">
         <v>11.694172352021953</v>
       </c>
-      <c r="K19" s="111">
+      <c r="K19" s="110">
         <v>13.155422702813016</v>
       </c>
-      <c r="L19" s="111">
+      <c r="L19" s="110">
         <v>16.800591162533525</v>
       </c>
-      <c r="M19" s="111">
+      <c r="M19" s="110">
         <v>22.436053207112593</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="103" t="s">
         <v>378</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="104" t="s">
         <v>379</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="104" t="s">
         <v>380</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="H20" s="110" t="s">
+      <c r="H20" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="111">
+      <c r="I20" s="110">
         <v>13.706494438464297</v>
       </c>
-      <c r="J20" s="111">
+      <c r="J20" s="110">
         <v>16.25489706267631</v>
       </c>
-      <c r="K20" s="111">
+      <c r="K20" s="110">
         <v>19.574083228473846</v>
       </c>
-      <c r="L20" s="111">
+      <c r="L20" s="110">
         <v>25.49963931516589</v>
       </c>
-      <c r="M20" s="111">
+      <c r="M20" s="110">
         <v>30.268728142830849</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="105" t="s">
         <v>386</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="106" t="s">
         <v>387</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="106" t="s">
         <v>389</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="111">
+      <c r="I21" s="110">
         <v>17.283448556323709</v>
       </c>
-      <c r="J21" s="111">
+      <c r="J21" s="110">
         <v>25.635727173192286</v>
       </c>
-      <c r="K21" s="111">
+      <c r="K21" s="110">
         <v>22.095631016608483</v>
       </c>
-      <c r="L21" s="111">
+      <c r="L21" s="110">
         <v>24.673487629411714</v>
       </c>
-      <c r="M21" s="111">
+      <c r="M21" s="110">
         <v>31.269403815184365</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="103" t="s">
         <v>395</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="104" t="s">
         <v>396</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="104" t="s">
         <v>397</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="104" t="s">
         <v>398</v>
       </c>
-      <c r="H22" s="110" t="s">
+      <c r="H22" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="111">
+      <c r="I22" s="110">
         <v>11.010503440782324</v>
       </c>
-      <c r="J22" s="111">
+      <c r="J22" s="110">
         <v>10.352452247116178</v>
       </c>
-      <c r="K22" s="111">
+      <c r="K22" s="110">
         <v>11.018258931780606</v>
       </c>
-      <c r="L22" s="111">
+      <c r="L22" s="110">
         <v>15.993629669341997</v>
       </c>
-      <c r="M22" s="111">
+      <c r="M22" s="110">
         <v>18.908108669679496</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="105" t="s">
         <v>402</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="106" t="s">
         <v>403</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="106" t="s">
         <v>404</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="H23" s="110" t="s">
+      <c r="H23" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="111">
+      <c r="I23" s="110">
         <v>30.271473075211393</v>
       </c>
-      <c r="J23" s="111">
+      <c r="J23" s="110">
         <v>33.839388470297109</v>
       </c>
-      <c r="K23" s="111">
+      <c r="K23" s="110">
         <v>35.488667227205909</v>
       </c>
-      <c r="L23" s="111">
+      <c r="L23" s="110">
         <v>43.847304028045784</v>
       </c>
-      <c r="M23" s="111">
+      <c r="M23" s="110">
         <v>50.441725833756678</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="103" t="s">
         <v>411</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="104" t="s">
         <v>412</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="104" t="s">
         <v>413</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="H24" s="110" t="s">
+      <c r="H24" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="111">
+      <c r="I24" s="110">
         <v>14.028776978417264</v>
       </c>
-      <c r="J24" s="111">
+      <c r="J24" s="110">
         <v>17.054625828860122</v>
       </c>
-      <c r="K24" s="111">
+      <c r="K24" s="110">
         <v>17.899999999999999</v>
       </c>
-      <c r="L24" s="111">
+      <c r="L24" s="110">
         <v>19.811370076434855</v>
       </c>
-      <c r="M24" s="111">
+      <c r="M24" s="110">
         <v>24.283099671571392</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="105" t="s">
         <v>419</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="106" t="s">
         <v>420</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="106" t="s">
         <v>421</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="106" t="s">
         <v>422</v>
       </c>
-      <c r="H25" s="112" t="s">
+      <c r="H25" s="111" t="s">
         <v>437</v>
       </c>
-      <c r="I25" s="111">
+      <c r="I25" s="110">
         <v>7.9037800687285218</v>
       </c>
-      <c r="J25" s="111">
+      <c r="J25" s="110">
         <v>7.3036582246098742</v>
       </c>
-      <c r="K25" s="111">
+      <c r="K25" s="110">
         <v>4.3403196017024008</v>
       </c>
-      <c r="L25" s="111">
+      <c r="L25" s="110">
         <v>8.670080468178492</v>
       </c>
-      <c r="M25" s="111">
+      <c r="M25" s="110">
         <v>13.939272184594193</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="H26" s="113" t="s">
+      <c r="H26" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="114">
+      <c r="I26" s="113">
         <v>14.357592093441149</v>
       </c>
-      <c r="J26" s="114">
+      <c r="J26" s="113">
         <v>16.542987001339501</v>
       </c>
-      <c r="K26" s="114">
+      <c r="K26" s="113">
         <v>18.028297925304944</v>
       </c>
-      <c r="L26" s="114">
+      <c r="L26" s="113">
         <v>23.411554888064956</v>
       </c>
-      <c r="M26" s="114">
+      <c r="M26" s="113">
         <v>28.529829528031343</v>
       </c>
     </row>
@@ -7297,17 +7292,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
@@ -7344,7 +7339,7 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
@@ -7390,9 +7385,8 @@
       <c r="K2" s="16">
         <v>7.11</v>
       </c>
-      <c r="L2" s="17">
-        <f>VLOOKUP(A2,fertilidad!A$2:D$25,3)</f>
-        <v>0.89</v>
+      <c r="L2" s="16">
+        <v>32.79219787415181</v>
       </c>
       <c r="M2" s="18">
         <v>116.77</v>
@@ -7402,7 +7396,7 @@
       </c>
       <c r="O2">
         <f>L2-N2</f>
-        <v>2.0136010866508292E-2</v>
+        <v>31.922333885018318</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
@@ -7441,9 +7435,8 @@
       <c r="K3" s="16">
         <v>6.04395522</v>
       </c>
-      <c r="L3" s="17">
-        <f>VLOOKUP(A3,fertilidad!A$2:D$25,3)</f>
-        <v>1.43</v>
+      <c r="L3" s="16">
+        <v>39.641772500122983</v>
       </c>
       <c r="M3" s="25">
         <v>55.19</v>
@@ -7453,7 +7446,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O25" si="2">L3-N3</f>
-        <v>4.612219156804831E-2</v>
+        <v>38.257894691691028</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
@@ -7492,9 +7485,8 @@
       <c r="K4" s="16">
         <v>5.7350000000000003</v>
       </c>
-      <c r="L4" s="17">
-        <f>VLOOKUP(A4,fertilidad!A$2:D$25,3)</f>
-        <v>1.48</v>
+      <c r="L4" s="16">
+        <v>44.243040784241188</v>
       </c>
       <c r="M4" s="28">
         <v>45.08</v>
@@ -7504,7 +7496,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>3.979732535924918E-2</v>
+        <v>42.802838109600437</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
@@ -7543,9 +7535,8 @@
       <c r="K5" s="16">
         <v>5.8126923100000001</v>
       </c>
-      <c r="L5" s="17">
-        <f>VLOOKUP(A5,fertilidad!A$2:D$25,3)</f>
-        <v>1.38</v>
+      <c r="L5" s="16">
+        <v>43.268055320021098</v>
       </c>
       <c r="M5" s="31">
         <v>58.77</v>
@@ -7555,7 +7546,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>3.613173012485027E-2</v>
+        <v>41.924187050145946</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
@@ -7594,9 +7585,8 @@
       <c r="K6" s="16">
         <v>4.3296000000000001</v>
       </c>
-      <c r="L6" s="17">
-        <f>VLOOKUP(A6,fertilidad!A$2:D$25,3)</f>
-        <v>1.63</v>
+      <c r="L6" s="16">
+        <v>49.785891290147553</v>
       </c>
       <c r="M6" s="34">
         <v>41.62</v>
@@ -7606,7 +7596,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>4.6414291650846318E-2</v>
+        <v>48.202305581798399</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
@@ -7645,9 +7635,8 @@
       <c r="K7" s="16">
         <v>3.93</v>
       </c>
-      <c r="L7" s="17">
-        <f>VLOOKUP(A7,fertilidad!A$2:D$25,3)</f>
-        <v>1.68</v>
+      <c r="L7" s="16">
+        <v>56.742256151830823</v>
       </c>
       <c r="M7" s="36">
         <v>36.29</v>
@@ -7657,7 +7646,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>4.084835644220286E-2</v>
+        <v>55.103104508273027</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
@@ -7696,9 +7685,8 @@
       <c r="K8" s="16">
         <v>5.6586666699999997</v>
       </c>
-      <c r="L8" s="17">
-        <f>VLOOKUP(A8,fertilidad!A$2:D$25,3)</f>
-        <v>1.41</v>
+      <c r="L8" s="16">
+        <v>37.656392296361503</v>
       </c>
       <c r="M8" s="39">
         <v>44.4</v>
@@ -7708,7 +7696,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>4.2815945508893893E-2</v>
+        <v>36.289208241870398</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
@@ -7747,9 +7735,8 @@
       <c r="K9" s="16">
         <v>5.5882352900000001</v>
       </c>
-      <c r="L9" s="17">
-        <f>VLOOKUP(A9,fertilidad!A$2:D$25,3)</f>
-        <v>1.49</v>
+      <c r="L9" s="16">
+        <v>42.99187232492487</v>
       </c>
       <c r="M9" s="42">
         <v>53.64</v>
@@ -7759,7 +7746,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>4.1878489161595311E-2</v>
+        <v>41.543750814086465</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
@@ -7798,9 +7785,8 @@
       <c r="K10" s="16">
         <v>3.55</v>
       </c>
-      <c r="L10" s="17">
-        <f>VLOOKUP(A10,fertilidad!A$2:D$25,3)</f>
-        <v>1.7</v>
+      <c r="L10" s="16">
+        <v>54.803369334918088</v>
       </c>
       <c r="M10" s="45">
         <v>36.64</v>
@@ -7810,7 +7796,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>4.7827910851156785E-2</v>
+        <v>53.151197245769247</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
@@ -7849,9 +7835,8 @@
       <c r="K11" s="16">
         <v>4.3406250000000002</v>
       </c>
-      <c r="L11" s="17">
-        <f>VLOOKUP(A11,fertilidad!A$2:D$25,3)</f>
-        <v>1.61</v>
+      <c r="L11" s="16">
+        <v>37.994858861660617</v>
       </c>
       <c r="M11" s="48">
         <v>42.27</v>
@@ -7861,7 +7846,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>4.5958649183158506E-2</v>
+        <v>36.430817510843774</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
@@ -7900,9 +7885,8 @@
       <c r="K12" s="16">
         <v>6.0131818199999998</v>
       </c>
-      <c r="L12" s="17">
-        <f>VLOOKUP(A12,fertilidad!A$2:D$25,3)</f>
-        <v>1.43</v>
+      <c r="L12" s="16">
+        <v>39.419577977310368</v>
       </c>
       <c r="M12" s="31">
         <v>58.79</v>
@@ -7912,7 +7896,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>4.0426307820264018E-2</v>
+        <v>38.03000428513063</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
@@ -7951,9 +7935,8 @@
       <c r="K13" s="16">
         <v>5.92</v>
       </c>
-      <c r="L13" s="17">
-        <f>VLOOKUP(A13,fertilidad!A$2:D$25,3)</f>
-        <v>1.46</v>
+      <c r="L13" s="16">
+        <v>40.682268793892561</v>
       </c>
       <c r="M13" s="53">
         <v>40.89</v>
@@ -7963,7 +7946,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>3.5395402216404248E-2</v>
+        <v>39.257664196108962</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
@@ -8002,9 +7985,8 @@
       <c r="K14" s="16">
         <v>5.9516666699999998</v>
       </c>
-      <c r="L14" s="17">
-        <f>VLOOKUP(A14,fertilidad!A$2:D$25,3)</f>
-        <v>1.52</v>
+      <c r="L14" s="16">
+        <v>42.355493198801952</v>
       </c>
       <c r="M14" s="56">
         <v>53.25</v>
@@ -8014,7 +7996,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>4.8123869339740777E-2</v>
+        <v>40.883617068141696</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
@@ -8053,9 +8035,8 @@
       <c r="K15" s="16">
         <v>4.5305882400000002</v>
       </c>
-      <c r="L15" s="17">
-        <f>VLOOKUP(A15,fertilidad!A$2:D$25,3)</f>
-        <v>1.75</v>
+      <c r="L15" s="16">
+        <v>59.010967146793362</v>
       </c>
       <c r="M15" s="59">
         <v>30.87</v>
@@ -8065,7 +8046,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>5.7127156237397614E-2</v>
+        <v>57.318094303030762</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
@@ -8104,9 +8085,8 @@
       <c r="K16" s="16">
         <v>5.8043750000000003</v>
       </c>
-      <c r="L16" s="17">
-        <f>VLOOKUP(A16,fertilidad!A$2:D$25,3)</f>
-        <v>1.37</v>
+      <c r="L16" s="16">
+        <v>43.477505745862111</v>
       </c>
       <c r="M16" s="62">
         <v>41.4</v>
@@ -8116,7 +8096,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>3.8476829243581756E-2</v>
+        <v>42.145982575105691</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
@@ -8155,9 +8135,8 @@
       <c r="K17" s="16">
         <v>5.54692308</v>
       </c>
-      <c r="L17" s="17">
-        <f>VLOOKUP(A17,fertilidad!A$2:D$25,3)</f>
-        <v>1.43</v>
+      <c r="L17" s="16">
+        <v>41.770886738028281</v>
       </c>
       <c r="M17" s="65">
         <v>50.04</v>
@@ -8167,7 +8146,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>4.3743309217104898E-2</v>
+        <v>40.384630047245388</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
@@ -8206,9 +8185,8 @@
       <c r="K18" s="16">
         <v>4.6017391300000003</v>
       </c>
-      <c r="L18" s="17">
-        <f>VLOOKUP(A18,fertilidad!A$2:D$25,3)</f>
-        <v>1.69</v>
+      <c r="L18" s="16">
+        <v>49.644092249591587</v>
       </c>
       <c r="M18" s="67">
         <v>35.96</v>
@@ -8218,7 +8196,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>4.6207434520416424E-2</v>
+        <v>48.000299684112001</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1">
@@ -8257,9 +8235,8 @@
       <c r="K19" s="16">
         <v>5.40473684</v>
       </c>
-      <c r="L19" s="17">
-        <f>VLOOKUP(A19,fertilidad!A$2:D$25,3)</f>
-        <v>1.64</v>
+      <c r="L19" s="16">
+        <v>52.058147667099611</v>
       </c>
       <c r="M19" s="70">
         <v>43.47</v>
@@ -8269,7 +8246,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>5.2667271955798567E-2</v>
+        <v>50.470814939055408</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1">
@@ -8308,9 +8285,8 @@
       <c r="K20" s="16">
         <v>5.37</v>
       </c>
-      <c r="L20" s="17">
-        <f>VLOOKUP(A20,fertilidad!A$2:D$25,3)</f>
-        <v>1.47</v>
+      <c r="L20" s="16">
+        <v>41.931202967833393</v>
       </c>
       <c r="M20" s="73">
         <v>47.2</v>
@@ -8320,7 +8296,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
-        <v>4.6180393676068743E-2</v>
+        <v>40.507383361509461</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
@@ -8359,9 +8335,8 @@
       <c r="K21" s="16">
         <v>6.9957142899999996</v>
       </c>
-      <c r="L21" s="17">
-        <f>VLOOKUP(A21,fertilidad!A$2:D$25,3)</f>
-        <v>1.53</v>
+      <c r="L21" s="16">
+        <v>36.302584268549978</v>
       </c>
       <c r="M21" s="76">
         <v>30.32</v>
@@ -8371,7 +8346,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>4.2328652624540331E-2</v>
+        <v>34.814912921174518</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
@@ -8410,9 +8385,8 @@
       <c r="K22" s="16">
         <v>5.8684210500000002</v>
       </c>
-      <c r="L22" s="17">
-        <f>VLOOKUP(A22,fertilidad!A$2:D$25,3)</f>
-        <v>1.4</v>
+      <c r="L22" s="16">
+        <v>46.115686477427893</v>
       </c>
       <c r="M22" s="79">
         <v>60.12</v>
@@ -8422,7 +8396,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>3.8697239722669918E-2</v>
+        <v>44.75438371715056</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
@@ -8461,9 +8435,8 @@
       <c r="K23" s="16">
         <v>3.9737037000000002</v>
       </c>
-      <c r="L23" s="17">
-        <f>VLOOKUP(A23,fertilidad!A$2:D$25,3)</f>
-        <v>1.7</v>
+      <c r="L23" s="16">
+        <v>44.770683005007328</v>
       </c>
       <c r="M23" s="82">
         <v>35.5</v>
@@ -8473,7 +8446,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>4.8563098849734976E-2</v>
+        <v>43.119246103857066</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
@@ -8512,9 +8485,8 @@
       <c r="K24" s="16">
         <v>5.1482352899999997</v>
       </c>
-      <c r="L24" s="17">
-        <f>VLOOKUP(A24,fertilidad!A$2:D$25,3)</f>
-        <v>1.59</v>
+      <c r="L24" s="16">
+        <v>46.065362047468597</v>
       </c>
       <c r="M24" s="28">
         <v>45.17</v>
@@ -8523,8 +8495,8 @@
         <v>1.541592448380531</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
-        <v>4.840755161946908E-2</v>
+        <f>L25-N24</f>
+        <v>29.972596066358008</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
@@ -8563,9 +8535,8 @@
       <c r="K25" s="16">
         <v>7.15</v>
       </c>
-      <c r="L25" s="17">
-        <f>VLOOKUP(A25,fertilidad!A$2:D$25,3)</f>
-        <v>1.37</v>
+      <c r="L25" s="16">
+        <v>31.514188514738539</v>
       </c>
       <c r="M25" s="86">
         <v>28.84</v>
@@ -8573,14 +8544,185 @@
       <c r="N25">
         <v>1.326764634123454</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>4.3235365876546084E-2</v>
+      <c r="O25" t="e">
+        <f>#REF!-N25</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L36" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L39" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39">
+        <v>42.99187232492487</v>
+      </c>
+    </row>
+    <row r="40" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40">
+        <v>54.803369334918088</v>
+      </c>
+    </row>
+    <row r="41" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41">
+        <v>37.994858861660617</v>
+      </c>
+    </row>
+    <row r="42" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>39.419577977310368</v>
+      </c>
+    </row>
+    <row r="43" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43">
+        <v>40.682268793892561</v>
+      </c>
+    </row>
+    <row r="44" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>42.355493198801952</v>
+      </c>
+    </row>
+    <row r="45" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <v>59.010967146793362</v>
+      </c>
+    </row>
+    <row r="46" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L46" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46">
+        <v>43.477505745862111</v>
+      </c>
+    </row>
+    <row r="47" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47">
+        <v>41.770886738028281</v>
+      </c>
+    </row>
+    <row r="48" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48">
+        <v>49.644092249591587</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L49" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49">
+        <v>52.058147667099611</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50">
+        <v>41.931202967833393</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51">
+        <v>36.302584268549978</v>
+      </c>
+    </row>
+    <row r="52" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L52" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52">
+        <v>46.115686477427893</v>
+      </c>
+    </row>
+    <row r="53" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L53" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53">
+        <v>44.770683005007328</v>
+      </c>
+    </row>
+    <row r="54" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54">
+        <v>31.514188514738539</v>
+      </c>
+    </row>
+    <row r="55" spans="12:13" ht="15.75" customHeight="1">
+      <c r="L55" t="s">
+        <v>72</v>
+      </c>
+      <c r="M55">
+        <v>46.065362047468597</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E25">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8592,6 +8734,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF9796E"/>
+        <color rgb="FFFFD666"/>
+        <color rgb="FF72C27B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8603,8 +8769,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K25">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="L2:L25">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8615,55 +8781,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L25">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFE67C73"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFE67C73"/>
-        <color rgb="FFFFD666"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CF9907-74A5-457C-ABD4-5E12FA69D1A0}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29:P53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:18" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115"/>
+      <c r="C1" s="114"/>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -8698,14 +8840,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.25">
+    <row r="2" spans="1:18" ht="16.8">
       <c r="A2" s="8">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="115" t="s">
         <v>436</v>
       </c>
       <c r="D2" s="100">
@@ -8718,7 +8860,7 @@
         <f t="shared" ref="F2:F25" si="0">D2/E2</f>
         <v>14036.673142302088</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="106" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -8730,7 +8872,7 @@
       <c r="J2">
         <v>718743</v>
       </c>
-      <c r="K2" s="119">
+      <c r="K2" s="118">
         <f>J2/G2</f>
         <v>0.62492109615053548</v>
       </c>
@@ -8738,9 +8880,9 @@
         <v>7.11</v>
       </c>
       <c r="M2" s="17">
-        <v>1.8573999999999999</v>
-      </c>
-      <c r="N2" s="111">
+        <v>59.779168810456532</v>
+      </c>
+      <c r="N2" s="110">
         <v>100.33015104410268</v>
       </c>
       <c r="P2">
@@ -8753,14 +8895,14 @@
         <v>2890151</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.25">
+    <row r="3" spans="1:18" ht="16.8">
       <c r="A3" s="19">
         <v>6</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="115" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="100">
@@ -8773,7 +8915,7 @@
         <f t="shared" si="0"/>
         <v>51.077822896732798</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="104" t="s">
         <v>206</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -8785,7 +8927,7 @@
       <c r="J3">
         <v>3570314</v>
       </c>
-      <c r="K3" s="119">
+      <c r="K3" s="118">
         <f t="shared" ref="K3:K25" si="1">J3/G3</f>
         <v>0.74544857024263989</v>
       </c>
@@ -8793,9 +8935,9 @@
         <v>6.04395522</v>
       </c>
       <c r="M3" s="17">
-        <v>2.4792000000000001</v>
-      </c>
-      <c r="N3" s="111">
+        <v>74.606266873723328</v>
+      </c>
+      <c r="N3" s="110">
         <v>43.111908956229925</v>
       </c>
       <c r="P3">
@@ -8808,14 +8950,14 @@
         <v>15625084</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.25">
+    <row r="4" spans="1:18" ht="16.8">
       <c r="A4" s="19">
         <v>10</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="115" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="100">
@@ -8828,7 +8970,7 @@
         <f t="shared" si="0"/>
         <v>3.6244175310707574</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="104" t="s">
         <v>226</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -8840,7 +8982,7 @@
       <c r="J4">
         <v>78469</v>
       </c>
-      <c r="K4" s="119">
+      <c r="K4" s="118">
         <f t="shared" si="1"/>
         <v>0.81737690232393412</v>
       </c>
@@ -8848,9 +8990,9 @@
         <v>5.7350000000000003</v>
       </c>
       <c r="M4" s="17">
-        <v>2.3342999999999998</v>
-      </c>
-      <c r="N4" s="111">
+        <v>68.292682926829272</v>
+      </c>
+      <c r="N4" s="110">
         <v>26.962736849942299</v>
       </c>
       <c r="P4">
@@ -8863,14 +9005,14 @@
         <v>367828</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.25">
+    <row r="5" spans="1:18" ht="16.8">
       <c r="A5" s="19">
         <v>14</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="115" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="100">
@@ -8883,7 +9025,7 @@
         <f t="shared" si="0"/>
         <v>20.08937038804477</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="106" t="s">
         <v>256</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -8895,7 +9037,7 @@
       <c r="J5">
         <v>691612</v>
       </c>
-      <c r="K5" s="119">
+      <c r="K5" s="118">
         <f t="shared" si="1"/>
         <v>0.67026863582928797</v>
       </c>
@@ -8903,9 +9045,9 @@
         <v>5.8126923100000001</v>
       </c>
       <c r="M5" s="17">
-        <v>2.2545999999999999</v>
-      </c>
-      <c r="N5" s="111">
+        <v>67.931061692636888</v>
+      </c>
+      <c r="N5" s="110">
         <v>45.873680342440586</v>
       </c>
       <c r="P5">
@@ -8918,14 +9060,14 @@
         <v>3308876</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.25">
+    <row r="6" spans="1:18" ht="16.8">
       <c r="A6" s="19">
         <v>18</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="115" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="100">
@@ -8938,7 +9080,7 @@
         <f t="shared" si="0"/>
         <v>11.13732323646005</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="104" t="s">
         <v>265</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -8950,7 +9092,7 @@
       <c r="J6">
         <v>200020</v>
       </c>
-      <c r="K6" s="119">
+      <c r="K6" s="118">
         <f t="shared" si="1"/>
         <v>0.74690903930962638</v>
       </c>
@@ -8958,9 +9100,9 @@
         <v>4.3296000000000001</v>
       </c>
       <c r="M6" s="17">
-        <v>2.5345</v>
-      </c>
-      <c r="N6" s="111">
+        <v>77.73104458801825</v>
+      </c>
+      <c r="N6" s="110">
         <v>26.76082914210826</v>
       </c>
       <c r="P6">
@@ -8973,14 +9115,14 @@
         <v>992595</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.25">
+    <row r="7" spans="1:18" ht="16.8">
       <c r="A7" s="19">
         <v>22</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="115" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="100">
@@ -8993,7 +9135,7 @@
         <f t="shared" si="0"/>
         <v>10.577627243685804</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="106" t="s">
         <v>236</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -9005,7 +9147,7 @@
       <c r="J7">
         <v>224060</v>
       </c>
-      <c r="K7" s="119">
+      <c r="K7" s="118">
         <f t="shared" si="1"/>
         <v>0.77684781327360608</v>
       </c>
@@ -9013,9 +9155,9 @@
         <v>3.93</v>
       </c>
       <c r="M7" s="17">
-        <v>2.5800999999999998</v>
-      </c>
-      <c r="N7" s="111">
+        <v>82.36437270449693</v>
+      </c>
+      <c r="N7" s="110">
         <v>22.922720165289771</v>
       </c>
       <c r="P7">
@@ -9028,14 +9170,14 @@
         <v>1055259</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.25">
+    <row r="8" spans="1:18" ht="16.8">
       <c r="A8" s="19">
         <v>26</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="115" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="100">
@@ -9048,7 +9190,7 @@
         <f t="shared" si="0"/>
         <v>2.2697404351181421</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="104" t="s">
         <v>246</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -9060,7 +9202,7 @@
       <c r="J8">
         <v>106103</v>
       </c>
-      <c r="K8" s="119">
+      <c r="K8" s="118">
         <f t="shared" si="1"/>
         <v>0.67510148505401935</v>
       </c>
@@ -9068,9 +9210,9 @@
         <v>5.6586666699999997</v>
       </c>
       <c r="M8" s="17">
-        <v>2.4045000000000001</v>
-      </c>
-      <c r="N8" s="111">
+        <v>81.522138639092404</v>
+      </c>
+      <c r="N8" s="110">
         <v>27.845104185874973</v>
       </c>
       <c r="P8">
@@ -9083,14 +9225,14 @@
         <v>509108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.25">
+    <row r="9" spans="1:18" ht="16.8">
       <c r="A9" s="19">
         <v>30</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="115" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="100">
@@ -9103,7 +9245,7 @@
         <f t="shared" si="0"/>
         <v>15.768507993371072</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="106" t="s">
         <v>275</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -9115,7 +9257,7 @@
       <c r="J9">
         <v>276244</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="118">
         <f t="shared" si="1"/>
         <v>0.73641305072230023</v>
       </c>
@@ -9123,9 +9265,9 @@
         <v>5.5882352900000001</v>
       </c>
       <c r="M9" s="17">
-        <v>2.3275999999999999</v>
-      </c>
-      <c r="N9" s="111">
+        <v>71.114800924998164</v>
+      </c>
+      <c r="N9" s="110">
         <v>39.146898386982379</v>
       </c>
       <c r="P9">
@@ -9138,14 +9280,14 @@
         <v>1235994</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.25">
+    <row r="10" spans="1:18" ht="16.8">
       <c r="A10" s="19">
         <v>34</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="115" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="100">
@@ -9158,7 +9300,7 @@
         <f t="shared" si="0"/>
         <v>7.0231015932270298</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="104" t="s">
         <v>284</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -9170,7 +9312,7 @@
       <c r="J10">
         <v>107049</v>
       </c>
-      <c r="K10" s="119">
+      <c r="K10" s="118">
         <f t="shared" si="1"/>
         <v>0.76298439805278573</v>
       </c>
@@ -9178,9 +9320,9 @@
         <v>3.55</v>
       </c>
       <c r="M10" s="17">
-        <v>2.7282999999999999</v>
-      </c>
-      <c r="N10" s="111">
+        <v>82.628327498397454</v>
+      </c>
+      <c r="N10" s="110">
         <v>22.195472511678048</v>
       </c>
       <c r="P10">
@@ -9193,14 +9335,14 @@
         <v>530162</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.25">
+    <row r="11" spans="1:18" ht="16.8">
       <c r="A11" s="19">
         <v>38</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="115" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="100">
@@ -9213,7 +9355,7 @@
         <f t="shared" si="0"/>
         <v>12.645640276311786</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="106" t="s">
         <v>294</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -9225,7 +9367,7 @@
       <c r="J11">
         <v>125988</v>
       </c>
-      <c r="K11" s="119">
+      <c r="K11" s="118">
         <f t="shared" si="1"/>
         <v>0.72145679436522936</v>
       </c>
@@ -9233,9 +9375,9 @@
         <v>4.3406250000000002</v>
       </c>
       <c r="M11" s="17">
-        <v>2.4117999999999999</v>
-      </c>
-      <c r="N11" s="111">
+        <v>74.02515584243335</v>
+      </c>
+      <c r="N11" s="110">
         <v>24.832862115072523</v>
       </c>
       <c r="P11">
@@ -9248,14 +9390,14 @@
         <v>673307</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.25">
+    <row r="12" spans="1:18" ht="16.8">
       <c r="A12" s="19">
         <v>42</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="115" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="100">
@@ -9268,7 +9410,7 @@
         <f t="shared" si="0"/>
         <v>2.2227712249769151</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="104" t="s">
         <v>304</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -9280,7 +9422,7 @@
       <c r="J12">
         <v>77597</v>
       </c>
-      <c r="K12" s="119">
+      <c r="K12" s="118">
         <f t="shared" si="1"/>
         <v>0.72066608466296411</v>
       </c>
@@ -9288,9 +9430,9 @@
         <v>6.0131818199999998</v>
       </c>
       <c r="M12" s="17">
-        <v>2.2835999999999999</v>
-      </c>
-      <c r="N12" s="111">
+        <v>65.341647181086003</v>
+      </c>
+      <c r="N12" s="110">
         <v>45.172648796001816</v>
       </c>
       <c r="P12">
@@ -9303,14 +9445,14 @@
         <v>318951</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.25">
+    <row r="13" spans="1:18" ht="16.8">
       <c r="A13" s="19">
         <v>46</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="115" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="100">
@@ -9323,7 +9465,7 @@
         <f t="shared" si="0"/>
         <v>3.6466117339226636</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="106" t="s">
         <v>314</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -9335,7 +9477,7 @@
       <c r="J13">
         <v>70008</v>
       </c>
-      <c r="K13" s="119">
+      <c r="K13" s="118">
         <f t="shared" si="1"/>
         <v>0.76849951150970941</v>
       </c>
@@ -9343,9 +9485,9 @@
         <v>5.92</v>
       </c>
       <c r="M13" s="17">
-        <v>2.1684000000000001</v>
-      </c>
-      <c r="N13" s="111">
+        <v>64.883553217664272</v>
+      </c>
+      <c r="N13" s="110">
         <v>25.679638242338964</v>
       </c>
       <c r="P13">
@@ -9358,14 +9500,14 @@
         <v>333642</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.25">
+    <row r="14" spans="1:18" ht="16.8">
       <c r="A14" s="19">
         <v>50</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="115" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="100">
@@ -9378,7 +9520,7 @@
         <f t="shared" si="0"/>
         <v>11.665246744464985</v>
       </c>
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="104" t="s">
         <v>324</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -9390,7 +9532,7 @@
       <c r="J14">
         <v>320380</v>
       </c>
-      <c r="K14" s="119">
+      <c r="K14" s="118">
         <f t="shared" si="1"/>
         <v>0.64744028890087924</v>
       </c>
@@ -9398,9 +9540,9 @@
         <v>5.9516666699999998</v>
       </c>
       <c r="M14" s="17">
-        <v>2.4866000000000001</v>
-      </c>
-      <c r="N14" s="111">
+        <v>77.071752098734208</v>
+      </c>
+      <c r="N14" s="110">
         <v>39.994080863476462</v>
       </c>
       <c r="P14">
@@ -9413,14 +9555,14 @@
         <v>1738929</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.25">
+    <row r="15" spans="1:18" ht="16.8">
       <c r="A15" s="19">
         <v>54</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="115" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="100">
@@ -9433,7 +9575,7 @@
         <f t="shared" si="0"/>
         <v>36.828533602572932</v>
       </c>
-      <c r="G15" s="107" t="s">
+      <c r="G15" s="106" t="s">
         <v>334</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -9445,7 +9587,7 @@
       <c r="J15">
         <v>232822</v>
       </c>
-      <c r="K15" s="119">
+      <c r="K15" s="118">
         <f t="shared" si="1"/>
         <v>0.76850864655573636</v>
       </c>
@@ -9453,9 +9595,9 @@
         <v>4.5305882400000002</v>
       </c>
       <c r="M15" s="17">
-        <v>2.8125</v>
-      </c>
-      <c r="N15" s="111">
+        <v>88.974358974358978</v>
+      </c>
+      <c r="N15" s="110">
         <v>19.354064381431932</v>
       </c>
       <c r="P15">
@@ -9468,14 +9610,14 @@
         <v>1101593</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.25">
+    <row r="16" spans="1:18" ht="16.8">
       <c r="A16" s="19">
         <v>58</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="115" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="100">
@@ -9488,7 +9630,7 @@
         <f t="shared" si="0"/>
         <v>5.8383215775984407</v>
       </c>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="104" t="s">
         <v>343</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -9500,7 +9642,7 @@
       <c r="J16">
         <v>116515</v>
       </c>
-      <c r="K16" s="119">
+      <c r="K16" s="118">
         <f t="shared" si="1"/>
         <v>0.68515262529622423</v>
       </c>
@@ -9508,9 +9650,9 @@
         <v>5.8043750000000003</v>
       </c>
       <c r="M16" s="17">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="N16" s="111">
+        <v>80.215836794784167</v>
+      </c>
+      <c r="N16" s="110">
         <v>24.702456058983611</v>
       </c>
       <c r="P16">
@@ -9523,14 +9665,14 @@
         <v>551266</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.25">
+    <row r="17" spans="1:18" ht="16.8">
       <c r="A17" s="19">
         <v>62</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="115" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="100">
@@ -9543,7 +9685,7 @@
         <f t="shared" si="0"/>
         <v>3.1589722637442215</v>
       </c>
-      <c r="G17" s="107" t="s">
+      <c r="G17" s="106" t="s">
         <v>352</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -9555,7 +9697,7 @@
       <c r="J17">
         <v>134966</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="118">
         <f t="shared" si="1"/>
         <v>0.67757757707503929</v>
       </c>
@@ -9563,9 +9705,9 @@
         <v>5.54692308</v>
       </c>
       <c r="M17" s="17">
-        <v>2.3458000000000001</v>
-      </c>
-      <c r="N17" s="111">
+        <v>78.040068333592174</v>
+      </c>
+      <c r="N17" s="110">
         <v>32.789625499354308</v>
       </c>
       <c r="P17">
@@ -9578,14 +9720,14 @@
         <v>638645</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.25">
+    <row r="18" spans="1:18" ht="16.8">
       <c r="A18" s="19">
         <v>66</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="115" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="100">
@@ -9598,7 +9740,7 @@
         <f t="shared" si="0"/>
         <v>7.8179290011297766</v>
       </c>
-      <c r="G18" s="105" t="s">
+      <c r="G18" s="104" t="s">
         <v>362</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -9610,7 +9752,7 @@
       <c r="J18">
         <v>216978</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="118">
         <f t="shared" si="1"/>
         <v>0.72375697979279108</v>
       </c>
@@ -9618,9 +9760,9 @@
         <v>4.6017391300000003</v>
       </c>
       <c r="M18" s="17">
-        <v>2.8328000000000002</v>
-      </c>
-      <c r="N18" s="111">
+        <v>85.852688032524554</v>
+      </c>
+      <c r="N18" s="110">
         <v>22.436053207112593</v>
       </c>
       <c r="P18">
@@ -9633,14 +9775,14 @@
         <v>1214441</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.25">
+    <row r="19" spans="1:18" ht="16.8">
       <c r="A19" s="19">
         <v>70</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="115" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="100">
@@ -9653,7 +9795,7 @@
         <f t="shared" si="0"/>
         <v>7.7132991000745221</v>
       </c>
-      <c r="G19" s="107" t="s">
+      <c r="G19" s="106" t="s">
         <v>372</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -9665,7 +9807,7 @@
       <c r="J19">
         <v>120994</v>
       </c>
-      <c r="K19" s="119">
+      <c r="K19" s="118">
         <f t="shared" si="1"/>
         <v>0.6829838277214868</v>
       </c>
@@ -9673,9 +9815,9 @@
         <v>5.40473684</v>
       </c>
       <c r="M19" s="17">
-        <v>2.6842999999999999</v>
-      </c>
-      <c r="N19" s="111">
+        <v>79.946585831722828</v>
+      </c>
+      <c r="N19" s="110">
         <v>30.268728142830849</v>
       </c>
       <c r="P19">
@@ -9688,14 +9830,14 @@
         <v>681055</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.25">
+    <row r="20" spans="1:18" ht="16.8">
       <c r="A20" s="19">
         <v>74</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="115" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="100">
@@ -9708,7 +9850,7 @@
         <f t="shared" si="0"/>
         <v>5.7375798139543521</v>
       </c>
-      <c r="G20" s="105" t="s">
+      <c r="G20" s="104" t="s">
         <v>381</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -9720,7 +9862,7 @@
       <c r="J20">
         <v>90969</v>
       </c>
-      <c r="K20" s="119">
+      <c r="K20" s="118">
         <f t="shared" si="1"/>
         <v>0.71673153590394101</v>
       </c>
@@ -9728,9 +9870,9 @@
         <v>5.37</v>
       </c>
       <c r="M20" s="17">
-        <v>2.3201999999999998</v>
-      </c>
-      <c r="N20" s="111">
+        <v>70.142532315287497</v>
+      </c>
+      <c r="N20" s="110">
         <v>31.269403815184365</v>
       </c>
       <c r="P20">
@@ -9743,14 +9885,14 @@
         <v>432310</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.25">
+    <row r="21" spans="1:18" ht="16.8">
       <c r="A21" s="19">
         <v>78</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="100">
@@ -9763,7 +9905,7 @@
         <f t="shared" si="0"/>
         <v>1.1207019625088206</v>
       </c>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="106" t="s">
         <v>390</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -9775,7 +9917,7 @@
       <c r="J21">
         <v>50225</v>
       </c>
-      <c r="K21" s="119">
+      <c r="K21" s="118">
         <f t="shared" si="1"/>
         <v>0.61402758081079756</v>
       </c>
@@ -9783,9 +9925,9 @@
         <v>6.9957142899999996</v>
       </c>
       <c r="M21" s="17">
-        <v>2.6724999999999999</v>
-      </c>
-      <c r="N21" s="111">
+        <v>99.27262052319135</v>
+      </c>
+      <c r="N21" s="110">
         <v>18.908108669679496</v>
       </c>
       <c r="P21">
@@ -9798,14 +9940,14 @@
         <v>273964</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.25">
+    <row r="22" spans="1:18" ht="16.8">
       <c r="A22" s="19">
         <v>82</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="115" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="100">
@@ -9818,7 +9960,7 @@
         <f t="shared" si="0"/>
         <v>23.974173183908935</v>
       </c>
-      <c r="G22" s="105" t="s">
+      <c r="G22" s="104" t="s">
         <v>399</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -9830,7 +9972,7 @@
       <c r="J22">
         <v>749418</v>
       </c>
-      <c r="K22" s="119">
+      <c r="K22" s="118">
         <f t="shared" si="1"/>
         <v>0.73201292859675493</v>
       </c>
@@ -9838,9 +9980,9 @@
         <v>5.8684210500000002</v>
       </c>
       <c r="M22" s="17">
-        <v>2.1080999999999999</v>
-      </c>
-      <c r="N22" s="111">
+        <v>64.425026756894667</v>
+      </c>
+      <c r="N22" s="110">
         <v>50.441725833756678</v>
       </c>
       <c r="P22">
@@ -9853,14 +9995,14 @@
         <v>3194537</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.25">
+    <row r="23" spans="1:18" ht="16.8">
       <c r="A23" s="19">
         <v>86</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="115" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="100">
@@ -9873,7 +10015,7 @@
         <f t="shared" si="0"/>
         <v>6.3826667241151416</v>
       </c>
-      <c r="G23" s="107" t="s">
+      <c r="G23" s="106" t="s">
         <v>406</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -9885,7 +10027,7 @@
       <c r="J23">
         <v>188045</v>
       </c>
-      <c r="K23" s="119">
+      <c r="K23" s="118">
         <f t="shared" si="1"/>
         <v>0.86249283339066618</v>
       </c>
@@ -9893,9 +10035,9 @@
         <v>3.9737037000000002</v>
       </c>
       <c r="M23" s="17">
-        <v>2.5371999999999999</v>
-      </c>
-      <c r="N23" s="111">
+        <v>77.422030817021735</v>
+      </c>
+      <c r="N23" s="110">
         <v>24.283099671571392</v>
       </c>
       <c r="P23">
@@ -9908,14 +10050,14 @@
         <v>874006</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.25">
+    <row r="24" spans="1:18" ht="16.8">
       <c r="A24" s="19">
         <v>90</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="115" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="100">
@@ -9928,7 +10070,7 @@
         <f t="shared" si="0"/>
         <v>64.101522213517114</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="106" t="s">
         <v>423</v>
       </c>
       <c r="H24" s="10" t="s">
@@ -9940,7 +10082,7 @@
       <c r="J24">
         <v>286306</v>
       </c>
-      <c r="K24" s="119">
+      <c r="K24" s="118">
         <f t="shared" si="1"/>
         <v>0.77686968507996457</v>
       </c>
@@ -9948,9 +10090,9 @@
         <v>5.1482352899999997</v>
       </c>
       <c r="M24" s="17">
-        <v>2.5192000000000001</v>
-      </c>
-      <c r="N24" s="111">
+        <v>78.794036535550632</v>
+      </c>
+      <c r="N24" s="110">
         <v>28.529829528031343</v>
       </c>
       <c r="P24">
@@ -9963,14 +10105,14 @@
         <v>1448188</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.25">
+    <row r="25" spans="1:18" ht="16.8">
       <c r="A25" s="19">
         <v>94</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="115" t="s">
         <v>437</v>
       </c>
       <c r="D25" s="100">
@@ -9983,7 +10125,7 @@
         <f t="shared" si="0"/>
         <v>0.13973590074043934</v>
       </c>
-      <c r="G25" s="105" t="s">
+      <c r="G25" s="104" t="s">
         <v>414</v>
       </c>
       <c r="H25" s="10" t="s">
@@ -9995,7 +10137,7 @@
       <c r="J25">
         <v>25545</v>
       </c>
-      <c r="K25" s="119">
+      <c r="K25" s="118">
         <f t="shared" si="1"/>
         <v>0.65573980901529927</v>
       </c>
@@ -10003,9 +10145,9 @@
         <v>7.15</v>
       </c>
       <c r="M25" s="17">
-        <v>2.2703000000000002</v>
-      </c>
-      <c r="N25" s="111">
+        <v>69.279427942794271</v>
+      </c>
+      <c r="N25" s="110">
         <v>13.939272184594193</v>
       </c>
       <c r="P25">
@@ -10017,6 +10159,78 @@
       <c r="R25">
         <v>127205</v>
       </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="N29" s="123"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="N30" s="123"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="N31" s="123"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="N32" s="123"/>
+    </row>
+    <row r="33" spans="14:14">
+      <c r="N33" s="123"/>
+    </row>
+    <row r="34" spans="14:14">
+      <c r="N34" s="123"/>
+    </row>
+    <row r="35" spans="14:14">
+      <c r="N35" s="123"/>
+    </row>
+    <row r="36" spans="14:14">
+      <c r="N36" s="123"/>
+    </row>
+    <row r="37" spans="14:14">
+      <c r="N37" s="123"/>
+    </row>
+    <row r="38" spans="14:14">
+      <c r="N38" s="123"/>
+    </row>
+    <row r="39" spans="14:14">
+      <c r="N39" s="123"/>
+    </row>
+    <row r="40" spans="14:14">
+      <c r="N40" s="123"/>
+    </row>
+    <row r="41" spans="14:14">
+      <c r="N41" s="123"/>
+    </row>
+    <row r="42" spans="14:14">
+      <c r="N42" s="123"/>
+    </row>
+    <row r="43" spans="14:14">
+      <c r="N43" s="123"/>
+    </row>
+    <row r="44" spans="14:14">
+      <c r="N44" s="123"/>
+    </row>
+    <row r="45" spans="14:14">
+      <c r="N45" s="123"/>
+    </row>
+    <row r="46" spans="14:14">
+      <c r="N46" s="123"/>
+    </row>
+    <row r="47" spans="14:14">
+      <c r="N47" s="123"/>
+    </row>
+    <row r="48" spans="14:14">
+      <c r="N48" s="123"/>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" s="123"/>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" s="123"/>
+    </row>
+    <row r="51" spans="14:14">
+      <c r="N51" s="123"/>
+    </row>
+    <row r="52" spans="14:14">
+      <c r="N52" s="123"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:F25">
@@ -10079,457 +10293,457 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="111">
+      <c r="B1" s="110">
         <v>2776138</v>
       </c>
-      <c r="C1" s="111">
+      <c r="C1" s="110">
         <v>2890151</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="121">
+      <c r="H1" s="120">
         <v>1.8573999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="111">
+      <c r="B2" s="110">
         <v>13827203</v>
       </c>
-      <c r="C2" s="111">
+      <c r="C2" s="110">
         <v>15625084</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="121">
+      <c r="H2" s="120">
         <v>2.4792000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="110">
         <v>334568</v>
       </c>
-      <c r="C3" s="111">
+      <c r="C3" s="110">
         <v>367828</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="121">
+      <c r="H3" s="120">
         <v>2.3342999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="110">
         <v>984446</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="110">
         <v>1055259</v>
       </c>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="120">
         <v>2.5800999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="110">
         <v>413237</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="110">
         <v>509108</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="121">
+      <c r="H5" s="120">
         <v>2.4045000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="110">
         <v>3066801</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="110">
         <v>3308876</v>
       </c>
-      <c r="G6" s="120" t="s">
+      <c r="G6" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="121">
+      <c r="H6" s="120">
         <v>2.2545999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="110">
         <v>930991</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="110">
         <v>992595</v>
       </c>
-      <c r="G7" s="120" t="s">
+      <c r="G7" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="120">
         <v>2.5345</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="111">
+      <c r="B8" s="110">
         <v>1158147</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="110">
         <v>1235994</v>
       </c>
-      <c r="G8" s="120" t="s">
+      <c r="G8" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="121">
+      <c r="H8" s="120">
         <v>2.3275999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="110">
         <v>486559</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="110">
         <v>530162</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="121">
+      <c r="H9" s="120">
         <v>2.7282999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="110">
         <v>611888</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="110">
         <v>673307</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="G10" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="121">
+      <c r="H10" s="120">
         <v>2.4117999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <v>299294</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="110">
         <v>318951</v>
       </c>
-      <c r="G11" s="120" t="s">
+      <c r="G11" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="120">
         <v>2.2835999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="111">
+      <c r="B12" s="110">
         <v>289983</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="110">
         <v>333642</v>
       </c>
-      <c r="G12" s="120" t="s">
+      <c r="G12" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="121">
+      <c r="H12" s="120">
         <v>2.1684000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="111">
+      <c r="B13" s="110">
         <v>1579651</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="110">
         <v>1738929</v>
       </c>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="121">
+      <c r="H13" s="120">
         <v>2.4866000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="110">
         <v>965522</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="110">
         <v>1101593</v>
       </c>
-      <c r="G14" s="120" t="s">
+      <c r="G14" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="121">
+      <c r="H14" s="120">
         <v>2.8125</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="111">
+      <c r="B15" s="110">
         <v>474155</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="110">
         <v>551266</v>
       </c>
-      <c r="G15" s="120" t="s">
+      <c r="G15" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="120">
         <v>2.5209999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="111">
+      <c r="B16" s="110">
         <v>552822</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="110">
         <v>638645</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="120" t="s">
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="121">
+      <c r="H16" s="120">
         <v>2.3458000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="111">
+      <c r="B17" s="110">
         <v>1079051</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="110">
         <v>1214441</v>
       </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="120" t="s">
+      <c r="D17" s="109"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="121">
+      <c r="H17" s="120">
         <v>2.8328000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="111">
+      <c r="B18" s="110">
         <v>620023</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="110">
         <v>681055</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="120" t="s">
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="121">
+      <c r="H18" s="120">
         <v>2.6842999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="111">
+      <c r="B19" s="110">
         <v>367933</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="110">
         <v>432310</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="120" t="s">
+      <c r="D19" s="109"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="120">
         <v>2.3201999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="111">
+      <c r="B20" s="110">
         <v>196958</v>
       </c>
-      <c r="C20" s="111">
+      <c r="C20" s="110">
         <v>273964</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="120" t="s">
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="121">
+      <c r="H20" s="120">
         <v>2.6724999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="111">
+      <c r="B21" s="110">
         <v>3000701</v>
       </c>
-      <c r="C21" s="111">
+      <c r="C21" s="110">
         <v>3194537</v>
       </c>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="120" t="s">
+      <c r="D21" s="109"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="121">
+      <c r="H21" s="120">
         <v>2.1080999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="111">
+      <c r="B22" s="110">
         <v>804457</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22" s="110">
         <v>874006</v>
       </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="120" t="s">
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="121">
+      <c r="H22" s="120">
         <v>2.5371999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="111" t="s">
         <v>437</v>
       </c>
-      <c r="B23" s="111">
+      <c r="B23" s="110">
         <v>101079</v>
       </c>
-      <c r="C23" s="111">
+      <c r="C23" s="110">
         <v>127205</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="120" t="s">
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="119" t="s">
         <v>437</v>
       </c>
-      <c r="H23" s="121">
+      <c r="H23" s="120">
         <v>2.2703000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="114">
+      <c r="B24" s="113">
         <v>1338523</v>
       </c>
-      <c r="C24" s="114">
+      <c r="C24" s="113">
         <v>1448188</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="123" t="s">
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="122">
+      <c r="H24" s="121">
         <v>2.5192000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="D26" s="110"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="116" t="s">
         <v>436</v>
       </c>
       <c r="B27" s="100">
@@ -10538,13 +10752,13 @@
       <c r="C27" s="100">
         <v>2890151</v>
       </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="116" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="101">
@@ -10553,13 +10767,13 @@
       <c r="C28" s="101">
         <v>15625084</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="100">
@@ -10568,13 +10782,13 @@
       <c r="C29" s="100">
         <v>367828</v>
       </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="116" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="100">
@@ -10583,13 +10797,13 @@
       <c r="C30" s="100">
         <v>1055259</v>
       </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="116" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="100">
@@ -10598,13 +10812,13 @@
       <c r="C31" s="100">
         <v>509108</v>
       </c>
-      <c r="D31" s="110"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="116" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="100">
@@ -10613,13 +10827,13 @@
       <c r="C32" s="100">
         <v>3308876</v>
       </c>
-      <c r="D32" s="110"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="116" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="100">
@@ -10628,13 +10842,13 @@
       <c r="C33" s="100">
         <v>992595</v>
       </c>
-      <c r="D33" s="110"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="116" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="100">
@@ -10643,13 +10857,13 @@
       <c r="C34" s="100">
         <v>1235994</v>
       </c>
-      <c r="D34" s="110"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="116" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="100">
@@ -10658,13 +10872,13 @@
       <c r="C35" s="100">
         <v>530162</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="116" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="100">
@@ -10673,13 +10887,13 @@
       <c r="C36" s="100">
         <v>673307</v>
       </c>
-      <c r="D36" s="110"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="116" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="100">
@@ -10688,13 +10902,13 @@
       <c r="C37" s="100">
         <v>318951</v>
       </c>
-      <c r="D37" s="110"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="116" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="100">
@@ -10703,13 +10917,13 @@
       <c r="C38" s="100">
         <v>333642</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="116" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="100">
@@ -10718,13 +10932,13 @@
       <c r="C39" s="100">
         <v>1738929</v>
       </c>
-      <c r="D39" s="113"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="116" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="100">
@@ -10735,7 +10949,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="116" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="100">
@@ -10746,7 +10960,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="117" t="s">
+      <c r="A42" s="116" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="100">
@@ -10757,7 +10971,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="116" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="100">
@@ -10768,7 +10982,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="116" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="100">
@@ -10779,7 +10993,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="116" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="100">
@@ -10790,7 +11004,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="116" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="100">
@@ -10801,7 +11015,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="117" t="s">
+      <c r="A47" s="116" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="100">
@@ -10812,7 +11026,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="117" t="s">
+      <c r="A48" s="116" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="100">
@@ -10823,7 +11037,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="117" t="s">
+      <c r="A49" s="116" t="s">
         <v>437</v>
       </c>
       <c r="B49" s="100">
@@ -10834,7 +11048,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="118" t="s">
+      <c r="A50" s="117" t="s">
         <v>72</v>
       </c>
       <c r="B50" s="102">
@@ -10860,7 +11074,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
@@ -10910,7 +11124,7 @@
       </c>
       <c r="C6" s="16">
         <f>CORREL('2022'!L:L,'2022'!H:H)</f>
-        <v>0.56450411551384128</v>
+        <v>0.36552487874591388</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -10919,7 +11133,7 @@
       </c>
       <c r="C7" s="16">
         <f>CORREL('2022'!L:L,'2022'!J:J)</f>
-        <v>0.70201829914089198</v>
+        <v>0.57654484316167121</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -10928,7 +11142,7 @@
       </c>
       <c r="C8" s="16">
         <f>CORREL('2022'!E2:E25,'2022'!L2:L25)</f>
-        <v>-0.73372113122778171</v>
+        <v>-0.3386579354394279</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>40</v>
@@ -10940,7 +11154,7 @@
       </c>
       <c r="C9" s="16">
         <f>CORREL('2022'!K2:K25,'2022'!L2:L25)</f>
-        <v>-0.770823106107273</v>
+        <v>-0.76707088951319502</v>
       </c>
     </row>
   </sheetData>
@@ -10956,10 +11170,10 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="E1" s="87"/>
@@ -11336,7 +11550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="90" t="s">
@@ -11702,7 +11916,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="17" t="s">
